--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BC/20/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BC/20/seed5/result_data_KNN.xlsx
@@ -586,10 +586,10 @@
         <v>-21.2</v>
       </c>
       <c r="B11" t="n">
-        <v>6.374000000000001</v>
+        <v>6.640000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>-13.728</v>
+        <v>-12.763</v>
       </c>
       <c r="D11" t="n">
         <v>-8.220000000000001</v>
@@ -600,7 +600,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.566000000000001</v>
+        <v>4.951000000000001</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -642,7 +642,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>5.516</v>
+        <v>5.090000000000001</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -757,7 +757,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.016</v>
+        <v>-12.748</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -810,7 +810,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>4.912</v>
+        <v>5.904000000000001</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -824,10 +824,10 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>6.228</v>
+        <v>6.06</v>
       </c>
       <c r="C28" t="n">
-        <v>-12.892</v>
+        <v>-12.458</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -866,7 +866,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>6.188</v>
+        <v>5.753</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -880,10 +880,10 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>6.608000000000001</v>
+        <v>6.69</v>
       </c>
       <c r="C32" t="n">
-        <v>-12.6</v>
+        <v>-12.719</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -911,7 +911,7 @@
         <v>6.92</v>
       </c>
       <c r="C34" t="n">
-        <v>-11.75</v>
+        <v>-11.886</v>
       </c>
       <c r="D34" t="n">
         <v>-7.27</v>
@@ -936,10 +936,10 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>9.382</v>
+        <v>9.25</v>
       </c>
       <c r="C36" t="n">
-        <v>-12.586</v>
+        <v>-12.745</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -953,7 +953,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-12.364</v>
+        <v>-12.912</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -964,7 +964,7 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>5.915999999999999</v>
+        <v>5.654000000000001</v>
       </c>
       <c r="C38" t="n">
         <v>-12.46</v>
@@ -1023,7 +1023,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-12.374</v>
+        <v>-12.679</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1076,7 +1076,7 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>5.07</v>
+        <v>6.706999999999999</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1121,7 +1121,7 @@
         <v>4.95</v>
       </c>
       <c r="C49" t="n">
-        <v>-12.764</v>
+        <v>-12.827</v>
       </c>
       <c r="D49" t="n">
         <v>-9.210000000000001</v>
@@ -1188,10 +1188,10 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>4.708</v>
+        <v>5.741</v>
       </c>
       <c r="C54" t="n">
-        <v>-13.182</v>
+        <v>-13.017</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1202,7 +1202,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>4.888</v>
+        <v>4.726</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1216,7 +1216,7 @@
         <v>-21.95</v>
       </c>
       <c r="B56" t="n">
-        <v>4.4</v>
+        <v>4.640000000000001</v>
       </c>
       <c r="C56" t="n">
         <v>-13.63</v>
@@ -1370,7 +1370,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.924</v>
+        <v>5.516</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1398,7 +1398,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.616</v>
+        <v>5.367000000000001</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1440,7 +1440,7 @@
         <v>-21.62</v>
       </c>
       <c r="B72" t="n">
-        <v>5.683999999999999</v>
+        <v>5.995</v>
       </c>
       <c r="C72" t="n">
         <v>-11.2</v>
@@ -1454,7 +1454,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>8.596</v>
+        <v>7.511</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1527,7 +1527,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-12.772</v>
+        <v>-12.038</v>
       </c>
       <c r="D78" t="n">
         <v>-6.53</v>
@@ -1555,7 +1555,7 @@
         <v>11.21</v>
       </c>
       <c r="C80" t="n">
-        <v>-11.908</v>
+        <v>-11.206</v>
       </c>
       <c r="D80" t="n">
         <v>-6.63</v>
@@ -1594,7 +1594,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.142</v>
+        <v>5.827</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1636,7 +1636,7 @@
         <v>-22.27</v>
       </c>
       <c r="B86" t="n">
-        <v>5.046</v>
+        <v>5.571</v>
       </c>
       <c r="C86" t="n">
         <v>-14.09</v>
@@ -1706,7 +1706,7 @@
         <v>-21.82</v>
       </c>
       <c r="B91" t="n">
-        <v>5.376</v>
+        <v>6.244000000000001</v>
       </c>
       <c r="C91" t="n">
         <v>-12.06</v>
@@ -1734,7 +1734,7 @@
         <v>-21.49</v>
       </c>
       <c r="B93" t="n">
-        <v>5.306</v>
+        <v>5.423999999999999</v>
       </c>
       <c r="C93" t="n">
         <v>-10.09</v>
@@ -1793,7 +1793,7 @@
         <v>6.4</v>
       </c>
       <c r="C97" t="n">
-        <v>-11.56</v>
+        <v>-11.624</v>
       </c>
       <c r="D97" t="n">
         <v>-6.44</v>
@@ -1818,10 +1818,10 @@
         <v>-21.32</v>
       </c>
       <c r="B99" t="n">
-        <v>4.818</v>
+        <v>5.486</v>
       </c>
       <c r="C99" t="n">
-        <v>-11.68</v>
+        <v>-12.225</v>
       </c>
       <c r="D99" t="n">
         <v>-7.59</v>
@@ -1835,7 +1835,7 @@
         <v>4.73</v>
       </c>
       <c r="C100" t="n">
-        <v>-12.216</v>
+        <v>-12.138</v>
       </c>
       <c r="D100" t="n">
         <v>-9.33</v>
@@ -1849,7 +1849,7 @@
         <v>8.42</v>
       </c>
       <c r="C101" t="n">
-        <v>-13.408</v>
+        <v>-12.608</v>
       </c>
       <c r="D101" t="n">
         <v>-7.98</v>
@@ -1888,7 +1888,7 @@
         <v>-19.85</v>
       </c>
       <c r="B104" t="n">
-        <v>8.754000000000001</v>
+        <v>8.57</v>
       </c>
       <c r="C104" t="n">
         <v>-11.07</v>
@@ -1902,7 +1902,7 @@
         <v>-20.36</v>
       </c>
       <c r="B105" t="n">
-        <v>8.674000000000001</v>
+        <v>7.857000000000001</v>
       </c>
       <c r="C105" t="n">
         <v>-12</v>
